--- a/excel/Приложение №1.xlsx
+++ b/excel/Приложение №1.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yachumakova\Desktop\хакатон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Нурик\Desktop\Pulkovo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C1FE8-407B-4954-9361-A7F63E2FDC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="960" windowWidth="10515" windowHeight="3840" tabRatio="592"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДПО" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ДПО!$CA$1:$CA$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ДПО!$CA$1:$CA$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="261">
   <si>
     <t>Пассажирские перевозки</t>
   </si>
@@ -80,10 +81,6 @@
   <si>
     <t>Неделя 52
 23.12-29.12</t>
-  </si>
-  <si>
-    <t>Неделя 01
-30.12-05.01</t>
   </si>
   <si>
     <t>АВИАЦИОННЫЙ УЧЕБНЫЙ ЦЕНТР
@@ -1073,9 +1070,6 @@
 ауд. 108</t>
   </si>
   <si>
-    <t>ПОЗ ВС</t>
-  </si>
-  <si>
     <t xml:space="preserve">“УТВЕРЖДАЮ"
 Руководитель АУЦ
 __________________________
@@ -1083,9 +1077,6 @@
 </t>
   </si>
   <si>
-    <t>СПАСОП</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 08.02-29.02
 13.02-07.03
@@ -1144,135 +1135,9 @@
     <t>Начальная подготовка СД</t>
   </si>
   <si>
-    <t>DI-30
-DI-10
-ауд. 105</t>
-  </si>
-  <si>
-    <t>DI-30В
-ауд. 105</t>
-  </si>
-  <si>
     <t>Повышение квалификации
 08.09–09.09
 ауд. 416</t>
-  </si>
-  <si>
-    <t>Типы ВС</t>
-  </si>
-  <si>
-    <t>В373CL</t>
-  </si>
-  <si>
-    <t>B737CL
-A320F</t>
-  </si>
-  <si>
-    <t>B737NG
-A320F</t>
-  </si>
-  <si>
-    <t>A320F</t>
-  </si>
-  <si>
-    <t>E-170/175</t>
-  </si>
-  <si>
-    <t>E-170/175
-B737CL</t>
-  </si>
-  <si>
-    <t>B737NG
-B737CL</t>
-  </si>
-  <si>
-    <t>ПТМ</t>
-  </si>
-  <si>
-    <t>Рабочий люльки</t>
-  </si>
-  <si>
-    <t>ЭБ</t>
-  </si>
-  <si>
-    <t>Устройство и безопасная эксплуатация электроустановок потребителей электроэнергии (2гр.)
-25.05-28.05
-ауд.414б Куала-Лумпур</t>
-  </si>
-  <si>
-    <t>Экзамен
-Устройство и безопасная эксплуатация электроустановок потребителей электроэнергии (2гр.)
-08.06-11.06
-ауд.422</t>
-  </si>
-  <si>
-    <t>Устройство и безопасная эксплуатация электроустановок потребителей электроэнергии (2гр.)
-28.09-01.10
-ауд.422</t>
-  </si>
-  <si>
-    <t>Экзамен
-Устройство и безопасная эксплуатация электроустановок потребителей электроэнергии (2гр.)
-05.10-08.10
-ауд.422</t>
-  </si>
-  <si>
-    <t>Рабочий люльки подъемниа (вышки)
-12.05-15.05
-ауд.107</t>
-  </si>
-  <si>
-    <t>Рабочий люльки подъемниа (вышки)
-12.10-15.10
-ауд.414б Куала-Лумпур</t>
-  </si>
-  <si>
-    <t>Пожарно-технический минимум для лиц, выполняющих сварочные работы и другие огневые работы
-09.07
-ауд.416</t>
-  </si>
-  <si>
-    <t>Пожарно-технический минимум для руководителей, специалистов и работников организаций, свзанных с взрывопожароопасным производством
-16.07
-ауд.422</t>
-  </si>
-  <si>
-    <t>Пожарно-технический минимум для руководителей, специалистов и ответственных за пожарную безопасность в учреждениях (офисах), организациях
-27.03
-ауд.414б Схипхол</t>
-  </si>
-  <si>
-    <t>Пожарно-технический минимум для руководителей, специалистов и ответственных за пожарную безопасность в учреждениях (офисах), организациях
-14.05
-ауд.106</t>
-  </si>
-  <si>
-    <t>Пожарно-технический минимум для руководителей, специалистов и ответственных за пожарную безопасность в учреждениях (офисах), организациях
-02.07
-ауд.422</t>
-  </si>
-  <si>
-    <t>Пожарно-технический минимум для руководителей, специалистов и ответственных за пожарную безопасность в учреждениях (офисах), организациях
-17.09
-ауд.422</t>
-  </si>
-  <si>
-    <t>Пожарно-технический минимум для руководителей, специалистов и ответственных за пожарную безопасность в учреждениях (офисах), организациях
-22.10
-ауд.414б Схипхол</t>
-  </si>
-  <si>
-    <t>Пожарно-технический минимум для руководителей, специалистов и ответственных за пожарную безопасность в учреждениях (офисах), организациях
-26.11
-ауд.422</t>
-  </si>
-  <si>
-    <t>Повышение квалификации
-13.01–27.01</t>
-  </si>
-  <si>
-    <t>Повышение квалификации
-03.02–17.02</t>
   </si>
   <si>
     <t>Базовый курс
@@ -1305,11 +1170,6 @@
     <t>02.04-23.04
 04.04-24.04
 12.04-03.05</t>
-  </si>
-  <si>
-    <t>DI-30
-DI-10
-ИАС,202</t>
   </si>
   <si>
     <t>Базовый курс
@@ -1495,7 +1355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1615,7 +1475,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1625,12 +1485,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,7 +1570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1753,23 +1607,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1810,9 +1655,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1840,7 +1682,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1893,7 +1735,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 2" descr="C:\Users\Mpetukhova\Desktop\logo_Pulkovo_VVSS.jpg"/>
+        <xdr:cNvPr id="28" name="Picture 2" descr="C:\Users\Mpetukhova\Desktop\logo_Pulkovo_VVSS.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -2007,6 +1855,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2042,6 +1907,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2217,17 +2099,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DL42"/>
+  <dimension ref="A1:DK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="AV67" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="CD5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="DK2" sqref="DK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2341,161 +2223,159 @@
     <col min="110" max="110" width="1.42578125" style="4" customWidth="1"/>
     <col min="111" max="111" width="20.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="112" max="112" width="1.42578125" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="20.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="114" max="114" width="20.7109375" style="4" customWidth="1"/>
-    <col min="115" max="115" width="1.42578125" customWidth="1"/>
-    <col min="116" max="116" width="20.7109375" style="4" customWidth="1"/>
-    <col min="117" max="180" width="1.42578125" customWidth="1"/>
+    <col min="113" max="113" width="20.7109375" style="4" customWidth="1"/>
+    <col min="114" max="114" width="1.42578125" customWidth="1"/>
+    <col min="115" max="115" width="20.7109375" style="4" customWidth="1"/>
+    <col min="116" max="179" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="I1" s="27" t="s">
+    <row r="1" spans="1:115" s="8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="29"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="10"/>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="29"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="26"/>
       <c r="Z1" s="10"/>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="29"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="26"/>
       <c r="AH1" s="10"/>
-      <c r="AI1" s="27" t="s">
+      <c r="AI1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="29"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="26"/>
       <c r="AR1" s="18"/>
-      <c r="AS1" s="27" t="s">
+      <c r="AS1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="29"/>
-      <c r="BA1" s="27" t="s">
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="26"/>
+      <c r="BA1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="29"/>
-      <c r="BI1" s="27" t="s">
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="26"/>
+      <c r="BI1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="28"/>
-      <c r="BO1" s="28"/>
-      <c r="BP1" s="28"/>
-      <c r="BQ1" s="29"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="26"/>
       <c r="BR1" s="18"/>
-      <c r="BS1" s="27" t="s">
+      <c r="BS1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="BT1" s="28"/>
-      <c r="BU1" s="28"/>
-      <c r="BV1" s="28"/>
-      <c r="BW1" s="28"/>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="29"/>
-      <c r="CA1" s="27" t="s">
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="25"/>
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="26"/>
+      <c r="CA1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="CB1" s="28"/>
-      <c r="CC1" s="28"/>
-      <c r="CD1" s="28"/>
-      <c r="CE1" s="28"/>
-      <c r="CF1" s="28"/>
-      <c r="CG1" s="29"/>
+      <c r="CB1" s="25"/>
+      <c r="CC1" s="25"/>
+      <c r="CD1" s="25"/>
+      <c r="CE1" s="25"/>
+      <c r="CF1" s="25"/>
+      <c r="CG1" s="26"/>
       <c r="CH1" s="10"/>
-      <c r="CI1" s="27" t="s">
+      <c r="CI1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="CJ1" s="28"/>
-      <c r="CK1" s="28"/>
-      <c r="CL1" s="28"/>
-      <c r="CM1" s="28"/>
-      <c r="CN1" s="28"/>
-      <c r="CO1" s="28"/>
-      <c r="CP1" s="28"/>
-      <c r="CQ1" s="29"/>
+      <c r="CJ1" s="25"/>
+      <c r="CK1" s="25"/>
+      <c r="CL1" s="25"/>
+      <c r="CM1" s="25"/>
+      <c r="CN1" s="25"/>
+      <c r="CO1" s="25"/>
+      <c r="CP1" s="25"/>
+      <c r="CQ1" s="26"/>
       <c r="CR1" s="18"/>
-      <c r="CS1" s="27" t="s">
+      <c r="CS1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="CT1" s="28"/>
-      <c r="CU1" s="28"/>
-      <c r="CV1" s="28"/>
-      <c r="CW1" s="28"/>
-      <c r="CX1" s="28"/>
-      <c r="CY1" s="29"/>
+      <c r="CT1" s="25"/>
+      <c r="CU1" s="25"/>
+      <c r="CV1" s="25"/>
+      <c r="CW1" s="25"/>
+      <c r="CX1" s="25"/>
+      <c r="CY1" s="26"/>
       <c r="CZ1" s="10"/>
-      <c r="DA1" s="27" t="s">
+      <c r="DA1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="DB1" s="28"/>
-      <c r="DC1" s="28"/>
-      <c r="DD1" s="28"/>
-      <c r="DE1" s="28"/>
-      <c r="DF1" s="28"/>
-      <c r="DG1" s="28"/>
-      <c r="DH1" s="28"/>
-      <c r="DI1" s="28"/>
-      <c r="DJ1" s="28"/>
-      <c r="DK1" s="28"/>
-      <c r="DL1" s="29"/>
+      <c r="DB1" s="25"/>
+      <c r="DC1" s="25"/>
+      <c r="DD1" s="25"/>
+      <c r="DE1" s="25"/>
+      <c r="DF1" s="25"/>
+      <c r="DG1" s="25"/>
+      <c r="DH1" s="25"/>
+      <c r="DI1" s="25"/>
+      <c r="DJ1" s="25"/>
+      <c r="DK1" s="26"/>
     </row>
-    <row r="2" spans="1:116" s="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+    <row r="2" spans="1:115" s="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -2593,282 +2473,277 @@
       <c r="DF2" s="10"/>
       <c r="DG2" s="10"/>
       <c r="DI2" s="10"/>
-      <c r="DJ2" s="10"/>
-      <c r="DL2" s="10"/>
+      <c r="DK2" s="10"/>
     </row>
-    <row r="3" spans="1:116" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="30" t="s">
+    <row r="3" spans="1:115" s="10" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="30" t="s">
+      <c r="N3" s="31"/>
+      <c r="O3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="30" t="s">
+      <c r="P3" s="20"/>
+      <c r="Q3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="30" t="s">
+      <c r="R3" s="30"/>
+      <c r="S3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="30" t="s">
+      <c r="U3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="W3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="30" t="s">
+      <c r="X3" s="29"/>
+      <c r="Y3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="30" t="s">
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="30" t="s">
+      <c r="AC3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="30" t="s">
+      <c r="AE3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="30" t="s">
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="30" t="s">
+      <c r="AI3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="30" t="s">
+      <c r="AK3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="30" t="s">
+      <c r="AM3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AM3" s="30" t="s">
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="30" t="s">
+      <c r="AQ3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="30" t="s">
+      <c r="AS3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AS3" s="30" t="s">
+      <c r="AU3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AU3" s="30" t="s">
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="30" t="s">
+      <c r="AY3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AY3" s="30" t="s">
+      <c r="BA3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BA3" s="30" t="s">
+      <c r="BC3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BC3" s="30" t="s">
+      <c r="BE3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BE3" s="30" t="s">
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="BF3" s="32"/>
-      <c r="BG3" s="30" t="s">
+      <c r="BI3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="BI3" s="30" t="s">
+      <c r="BK3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="BK3" s="30" t="s">
+      <c r="BM3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="BM3" s="30" t="s">
+      <c r="BN3" s="29"/>
+      <c r="BO3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="30" t="s">
+      <c r="BQ3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="BQ3" s="30" t="s">
+      <c r="BS3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="BS3" s="30" t="s">
+      <c r="BU3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="BU3" s="30" t="s">
+      <c r="BV3" s="29"/>
+      <c r="BW3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="BV3" s="32"/>
-      <c r="BW3" s="30" t="s">
+      <c r="BY3" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA3" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="CC3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="BY3" s="30" t="s">
+      <c r="CE3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="CF3" s="29"/>
+      <c r="CG3" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="CI3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="CK3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="CM3" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="CQ3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="CS3" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="CU3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="CV3" s="29"/>
+      <c r="CW3" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="CY3" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="CA3" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="CC3" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="CE3" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="CF3" s="32"/>
-      <c r="CG3" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="CI3" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="CK3" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="CM3" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="CN3" s="32"/>
-      <c r="CO3" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="CQ3" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="CS3" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="CU3" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="CV3" s="32"/>
-      <c r="CW3" s="30" t="s">
+      <c r="DA3" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="CY3" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="DA3" s="30" t="s">
+      <c r="DC3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="DC3" s="30" t="s">
+      <c r="DE3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="DE3" s="30" t="s">
+      <c r="DF3" s="29"/>
+      <c r="DG3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="DI3" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="DF3" s="32"/>
-      <c r="DG3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="DI3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="DJ3" s="30" t="s">
+      <c r="DK3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="DL3" s="30" t="s">
-        <v>70</v>
-      </c>
     </row>
-    <row r="4" spans="1:116" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="BA4" s="31"/>
-      <c r="BC4" s="31"/>
-      <c r="BE4" s="31"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="31"/>
-      <c r="BI4" s="31"/>
-      <c r="BK4" s="31"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CK4" s="31"/>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CS4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="31"/>
-      <c r="CY4" s="31"/>
-      <c r="DA4" s="31"/>
-      <c r="DC4" s="31"/>
-      <c r="DE4" s="31"/>
-      <c r="DF4" s="32"/>
-      <c r="DG4" s="32"/>
-      <c r="DI4" s="32"/>
-      <c r="DJ4" s="31"/>
-      <c r="DL4" s="31"/>
+    <row r="4" spans="1:115" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="28"/>
+      <c r="AQ4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="29"/>
+      <c r="BG4" s="28"/>
+      <c r="BI4" s="28"/>
+      <c r="BK4" s="28"/>
+      <c r="BM4" s="28"/>
+      <c r="BN4" s="29"/>
+      <c r="BO4" s="28"/>
+      <c r="BQ4" s="28"/>
+      <c r="BS4" s="28"/>
+      <c r="BU4" s="28"/>
+      <c r="BV4" s="29"/>
+      <c r="BW4" s="28"/>
+      <c r="BY4" s="28"/>
+      <c r="CA4" s="28"/>
+      <c r="CC4" s="28"/>
+      <c r="CE4" s="28"/>
+      <c r="CF4" s="29"/>
+      <c r="CG4" s="28"/>
+      <c r="CI4" s="28"/>
+      <c r="CK4" s="28"/>
+      <c r="CM4" s="28"/>
+      <c r="CN4" s="29"/>
+      <c r="CO4" s="28"/>
+      <c r="CQ4" s="28"/>
+      <c r="CS4" s="28"/>
+      <c r="CU4" s="28"/>
+      <c r="CV4" s="29"/>
+      <c r="CW4" s="28"/>
+      <c r="CY4" s="28"/>
+      <c r="DA4" s="28"/>
+      <c r="DC4" s="28"/>
+      <c r="DE4" s="28"/>
+      <c r="DF4" s="29"/>
+      <c r="DG4" s="29"/>
+      <c r="DI4" s="28"/>
+      <c r="DK4" s="28"/>
     </row>
-    <row r="5" spans="1:116" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:115" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2877,14 +2752,14 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:116" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44" t="s">
+    <row r="6" spans="1:115" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1"/>
@@ -2894,170 +2769,169 @@
       <c r="K6" s="9"/>
       <c r="L6" s="10"/>
       <c r="M6" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="12" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="U6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC6" s="9"/>
       <c r="AE6" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF6" s="10"/>
       <c r="AG6" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI6" s="9"/>
       <c r="AK6" s="9"/>
       <c r="AM6" s="12" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="AN6" s="10"/>
       <c r="AO6" s="12" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="AU6" s="9"/>
       <c r="AV6" s="10"/>
       <c r="AW6" s="12" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="AX6" s="4"/>
       <c r="AY6" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AZ6" s="4"/>
       <c r="BA6" s="12" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="BC6" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BE6" s="12" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="BF6" s="10"/>
       <c r="BG6" s="12" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="BH6" s="4"/>
       <c r="BI6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="BK6" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="BM6" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BN6" s="10"/>
       <c r="BO6" s="12" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="BP6" s="4"/>
       <c r="BQ6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BS6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="BS6" s="12" t="s">
+      <c r="BU6" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="BU6" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="BV6" s="10"/>
       <c r="BW6" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BX6" s="4"/>
       <c r="BY6" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BZ6" s="4"/>
       <c r="CA6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="CC6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="CC6" s="12" t="s">
+      <c r="CE6" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="CE6" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="CF6" s="10"/>
       <c r="CG6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK6" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="CI6" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="CK6" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="CL6" s="13"/>
       <c r="CM6" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CN6" s="10"/>
       <c r="CO6" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CQ6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CS6" s="9"/>
       <c r="CU6" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CV6" s="10"/>
       <c r="CW6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CX6" s="4"/>
       <c r="CY6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="DA6" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="DA6" s="12" t="s">
+      <c r="DC6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="DC6" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="DE6" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DF6" s="10"/>
       <c r="DG6" s="9"/>
       <c r="DH6" s="4"/>
-      <c r="DI6" s="9"/>
-      <c r="DJ6" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="DL6" s="9"/>
+      <c r="DI6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="DK6" s="9"/>
     </row>
-    <row r="7" spans="1:116" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:115" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="44"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="1"/>
       <c r="G7" s="3"/>
       <c r="K7" s="10"/>
@@ -3111,17 +2985,17 @@
       <c r="DE7" s="10"/>
       <c r="DF7" s="10"/>
       <c r="DG7" s="10"/>
-      <c r="DJ7" s="10"/>
-      <c r="DL7" s="10"/>
+      <c r="DI7" s="10"/>
+      <c r="DK7" s="10"/>
     </row>
-    <row r="8" spans="1:116" ht="155.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+    <row r="8" spans="1:115" ht="155.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
         <v>2020</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="1"/>
       <c r="G8" s="11" t="s">
         <v>2</v>
@@ -3129,38 +3003,38 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="S8" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="U8" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X8" s="10"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="10"/>
       <c r="AE8" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF8" s="10"/>
       <c r="AG8" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AM8" s="26"/>
+        <v>251</v>
+      </c>
+      <c r="AI8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AM8" s="23"/>
       <c r="AN8" s="10"/>
       <c r="AU8" s="10"/>
       <c r="AV8" s="10"/>
@@ -3169,19 +3043,19 @@
       <c r="AY8" s="10"/>
       <c r="AZ8" s="4"/>
       <c r="BE8" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF8" s="10"/>
       <c r="BG8" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH8" s="4"/>
       <c r="BI8" s="9"/>
       <c r="BK8" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM8" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BN8" s="10"/>
       <c r="BO8" s="10"/>
@@ -3191,11 +3065,11 @@
       <c r="BW8" s="10"/>
       <c r="BX8" s="4"/>
       <c r="BY8" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BZ8" s="4"/>
       <c r="CC8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CE8" s="9"/>
       <c r="CF8" s="10"/>
@@ -3203,17 +3077,17 @@
       <c r="CI8" s="9"/>
       <c r="CK8" s="9"/>
       <c r="CM8" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CN8" s="10"/>
       <c r="CO8" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="CU8" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="CU8" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="CV8" s="10"/>
       <c r="CW8" s="9"/>
@@ -3225,15 +3099,15 @@
       <c r="DE8" s="10"/>
       <c r="DF8" s="10"/>
       <c r="DG8" s="10"/>
-      <c r="DJ8" s="10"/>
-      <c r="DL8" s="10"/>
+      <c r="DI8" s="10"/>
+      <c r="DK8" s="10"/>
     </row>
-    <row r="9" spans="1:116" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="44"/>
+    <row r="9" spans="1:115" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
       <c r="K9" s="10"/>
@@ -3287,15 +3161,15 @@
       <c r="DE9" s="10"/>
       <c r="DF9" s="10"/>
       <c r="DG9" s="10"/>
-      <c r="DJ9" s="10"/>
-      <c r="DL9" s="10"/>
+      <c r="DI9" s="10"/>
+      <c r="DK9" s="10"/>
     </row>
-    <row r="10" spans="1:116" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="44"/>
+    <row r="10" spans="1:115" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="1"/>
       <c r="G10" s="11" t="s">
         <v>3</v>
@@ -3305,12 +3179,12 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="S10" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
@@ -3318,22 +3192,22 @@
       <c r="Z10" s="10"/>
       <c r="AC10" s="9"/>
       <c r="AE10" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF10" s="10"/>
       <c r="AG10" s="9"/>
       <c r="AI10" s="9"/>
       <c r="AM10" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN10" s="10"/>
       <c r="AO10" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AU10" s="10"/>
       <c r="AV10" s="10"/>
       <c r="AW10" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AX10" s="4"/>
       <c r="AY10" s="10"/>
@@ -3358,35 +3232,35 @@
       <c r="CF10" s="10"/>
       <c r="CK10" s="9"/>
       <c r="CM10" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CN10" s="10"/>
       <c r="CO10" s="9"/>
       <c r="CU10" s="9"/>
       <c r="CV10" s="10"/>
       <c r="CW10" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CX10" s="4"/>
       <c r="CY10" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="DA10" s="9"/>
       <c r="DC10" s="9"/>
       <c r="DE10" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DF10" s="10"/>
       <c r="DG10" s="10"/>
-      <c r="DJ10" s="9"/>
-      <c r="DL10" s="9"/>
+      <c r="DI10" s="9"/>
+      <c r="DK10" s="9"/>
     </row>
-    <row r="11" spans="1:116" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:115" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="44"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
       <c r="K11" s="10"/>
@@ -3439,49 +3313,49 @@
       <c r="DE11" s="10"/>
       <c r="DF11" s="10"/>
       <c r="DG11" s="10"/>
-      <c r="DJ11" s="10"/>
-      <c r="DL11" s="10"/>
+      <c r="DI11" s="10"/>
+      <c r="DK11" s="10"/>
     </row>
-    <row r="12" spans="1:116" ht="137.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="44"/>
+    <row r="12" spans="1:115" ht="137.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="40"/>
       <c r="G12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="O12" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="U12" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="W12" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="Y12" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="U12" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="AA12" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE12" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG12" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI12" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AX12" s="4"/>
       <c r="AZ12" s="4"/>
@@ -3490,8 +3364,8 @@
       <c r="BX12" s="4"/>
       <c r="BZ12" s="4"/>
     </row>
-    <row r="13" spans="1:116" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="44"/>
+    <row r="13" spans="1:115" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="40"/>
       <c r="AX13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BH13" s="4"/>
@@ -3499,136 +3373,136 @@
       <c r="BX13" s="4"/>
       <c r="BZ13" s="4"/>
     </row>
-    <row r="14" spans="1:116" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="44"/>
+    <row r="14" spans="1:115" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="40"/>
       <c r="G14" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q14" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="S14" s="24" t="s">
-        <v>269</v>
+        <v>236</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>236</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="W14" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC14" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE14" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="Y14" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA14" s="12" t="s">
+      <c r="AG14" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="AC14" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE14" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG14" s="12" t="s">
-        <v>222</v>
-      </c>
       <c r="AI14" s="12" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="AK14" s="12" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="AO14" s="12" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="AQ14" s="12" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="AU14" s="12" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="AW14" s="12" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="AX14" s="4"/>
       <c r="AY14" s="12" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="12" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="BC14" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="BE14" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="BG14" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="BH14" s="4"/>
       <c r="BI14" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="BK14" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="BM14" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="BO14" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="BP14" s="4"/>
       <c r="BQ14" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BS14" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BU14" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BW14" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BX14" s="4"/>
       <c r="BY14" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="BZ14" s="4"/>
       <c r="CA14" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="CC14" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="CE14" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="CG14" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="CI14" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="CK14" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="CM14" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:116" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:115" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BH15" s="4"/>
@@ -3636,43 +3510,43 @@
       <c r="BX15" s="4"/>
       <c r="BZ15" s="4"/>
     </row>
-    <row r="16" spans="1:116" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="45" t="s">
-        <v>123</v>
+    <row r="16" spans="1:115" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="41" t="s">
+        <v>122</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>7</v>
       </c>
       <c r="O16" s="9"/>
       <c r="S16" s="17" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="W16" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y16" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA16" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="Y16" s="17" t="s">
+      <c r="AC16" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="AA16" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC16" s="17" t="s">
-        <v>145</v>
-      </c>
       <c r="AE16" s="17" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="AG16" s="17" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="AM16" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AO16" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AX16" s="4"/>
       <c r="AZ16" s="4"/>
@@ -3681,20 +3555,20 @@
       <c r="BX16" s="4"/>
       <c r="BZ16" s="4"/>
       <c r="CC16" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CE16" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CU16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="17" spans="5:114" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="45"/>
+    <row r="17" spans="5:113" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="41"/>
       <c r="AX17" s="4"/>
       <c r="AZ17" s="4"/>
       <c r="BH17" s="4"/>
@@ -3702,10 +3576,10 @@
       <c r="BX17" s="4"/>
       <c r="BZ17" s="4"/>
     </row>
-    <row r="18" spans="5:114" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="45"/>
+    <row r="18" spans="5:113" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="41"/>
       <c r="G18" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O18" s="9"/>
       <c r="S18" s="9"/>
@@ -3722,27 +3596,27 @@
       <c r="AX18" s="4"/>
       <c r="AZ18" s="4"/>
       <c r="BE18" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BH18" s="4"/>
       <c r="BP18" s="4"/>
       <c r="BX18" s="4"/>
       <c r="BZ18" s="4"/>
       <c r="CK18" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CM18" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CO18" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="CU18" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="CU18" s="17" t="s">
-        <v>129</v>
-      </c>
     </row>
-    <row r="19" spans="5:114" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="45"/>
+    <row r="19" spans="5:113" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="41"/>
       <c r="AX19" s="4"/>
       <c r="AZ19" s="4"/>
       <c r="BH19" s="4"/>
@@ -3750,23 +3624,23 @@
       <c r="BX19" s="4"/>
       <c r="BZ19" s="4"/>
     </row>
-    <row r="20" spans="5:114" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="45"/>
+    <row r="20" spans="5:113" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="41"/>
       <c r="G20" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="AE20" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG20" s="9"/>
       <c r="AQ20" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AX20" s="4"/>
       <c r="AZ20" s="4"/>
@@ -3775,23 +3649,23 @@
       <c r="BX20" s="4"/>
       <c r="BZ20" s="4"/>
       <c r="CE20" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG20" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="CG20" s="17" t="s">
+      <c r="CS20" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="CY20" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="DA20" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="CS20" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="CY20" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="DA20" s="17" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="21" spans="5:114" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="45"/>
+    <row r="21" spans="5:113" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="41"/>
       <c r="AX21" s="4"/>
       <c r="AZ21" s="4"/>
       <c r="BH21" s="4"/>
@@ -3799,83 +3673,83 @@
       <c r="BX21" s="4"/>
       <c r="BZ21" s="4"/>
     </row>
-    <row r="22" spans="5:114" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="45"/>
+    <row r="22" spans="5:113" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="41"/>
       <c r="G22" s="16" t="s">
         <v>0</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="S22" s="9"/>
       <c r="W22" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y22" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA22" s="17" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="AC22" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE22" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AI22" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK22" s="9"/>
       <c r="AQ22" s="9"/>
       <c r="AS22" s="9"/>
       <c r="AW22" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AX22" s="4"/>
       <c r="AY22" s="9"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="17" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="BE22" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BH22" s="4"/>
       <c r="BK22" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BP22" s="4"/>
       <c r="BU22" s="9"/>
       <c r="BX22" s="4"/>
       <c r="BZ22" s="4"/>
       <c r="CC22" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="CG22" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="CI22" s="9"/>
       <c r="CM22" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="CO22" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CQ22" s="9"/>
       <c r="CU22" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CY22" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="DA22" s="9"/>
       <c r="DE22" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="23" spans="5:114" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="45"/>
+    <row r="23" spans="5:113" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="41"/>
       <c r="AX23" s="4"/>
       <c r="AZ23" s="4"/>
       <c r="BH23" s="4"/>
@@ -3883,114 +3757,114 @@
       <c r="BX23" s="4"/>
       <c r="BZ23" s="4"/>
     </row>
-    <row r="24" spans="5:114" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="45"/>
+    <row r="24" spans="5:113" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="41"/>
       <c r="G24" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA24" s="17" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="AC24" s="17" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="AG24" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK24" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO24" s="17" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="AQ24" s="9"/>
       <c r="AS24" s="9"/>
       <c r="AU24" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW24" s="17" t="s">
         <v>155</v>
-      </c>
-      <c r="AW24" s="17" t="s">
-        <v>156</v>
       </c>
       <c r="AX24" s="4"/>
       <c r="AY24" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AZ24" s="4"/>
       <c r="BA24" s="9"/>
       <c r="BC24" s="17" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="BG24" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BH24" s="4"/>
       <c r="BM24" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BP24" s="4"/>
       <c r="BW24" s="9"/>
       <c r="BX24" s="4"/>
       <c r="BZ24" s="4"/>
       <c r="CA24" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CE24" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="CG24" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CK24" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CO24" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CQ24" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CS24" s="9"/>
       <c r="CU24" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="CW24" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="CW24" s="17" t="s">
-        <v>170</v>
-      </c>
       <c r="CY24" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="DA24" s="9"/>
       <c r="DC24" s="9"/>
       <c r="DE24" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="DJ24" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="DI24" s="17" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:114" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="45"/>
+    <row r="25" spans="5:113" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="41"/>
       <c r="AX25" s="4"/>
       <c r="AZ25" s="4"/>
       <c r="BH25" s="4"/>
@@ -3998,65 +3872,65 @@
       <c r="BX25" s="4"/>
       <c r="BZ25" s="4"/>
     </row>
-    <row r="26" spans="5:114" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="45"/>
+    <row r="26" spans="5:113" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="41"/>
       <c r="G26" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="U26" s="9"/>
       <c r="Y26" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC26" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE26" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG26" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="AC26" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE26" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG26" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="AU26" s="9"/>
       <c r="AX26" s="4"/>
       <c r="AY26" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AZ26" s="4"/>
       <c r="BA26" s="9"/>
       <c r="BC26" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BG26" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BH26" s="4"/>
       <c r="BM26" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BP26" s="4"/>
       <c r="BW26" s="9"/>
       <c r="BX26" s="4"/>
       <c r="BZ26" s="4"/>
       <c r="CE26" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CK26" s="9"/>
       <c r="CO26" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CS26" s="9"/>
       <c r="CU26" s="9"/>
       <c r="CW26" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="DC26" s="9"/>
+      <c r="DI26" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="DC26" s="9"/>
-      <c r="DJ26" s="17" t="s">
-        <v>142</v>
-      </c>
     </row>
-    <row r="27" spans="5:114" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="45"/>
+    <row r="27" spans="5:113" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="41"/>
       <c r="AX27" s="4"/>
       <c r="AZ27" s="4"/>
       <c r="BH27" s="4"/>
@@ -4064,56 +3938,56 @@
       <c r="BX27" s="4"/>
       <c r="BZ27" s="4"/>
     </row>
-    <row r="28" spans="5:114" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="45"/>
+    <row r="28" spans="5:113" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="41"/>
       <c r="G28" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="Y28" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE28" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="AQ28" s="17" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="AX28" s="4"/>
       <c r="AY28" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ28" s="4"/>
       <c r="BH28" s="4"/>
       <c r="BP28" s="4"/>
       <c r="BU28" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW28" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="BW28" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="BX28" s="4"/>
       <c r="BZ28" s="4"/>
       <c r="CC28" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="CM28" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="CY28" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="DE28" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="CY28" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="DE28" s="17" t="s">
-        <v>185</v>
-      </c>
     </row>
-    <row r="29" spans="5:114" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="45"/>
+    <row r="29" spans="5:113" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="41"/>
       <c r="AX29" s="4"/>
       <c r="AZ29" s="4"/>
       <c r="BH29" s="4"/>
@@ -4121,243 +3995,44 @@
       <c r="BX29" s="4"/>
       <c r="BZ29" s="4"/>
     </row>
-    <row r="30" spans="5:114" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="45"/>
+    <row r="30" spans="5:113" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="41"/>
       <c r="G30" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U30" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AO30" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AX30" s="4"/>
       <c r="AY30" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ30" s="4"/>
       <c r="BH30" s="4"/>
       <c r="BM30" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BP30" s="4"/>
       <c r="BX30" s="4"/>
       <c r="BZ30" s="4"/>
       <c r="CE30" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="CQ30" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="CQ30" s="17" t="s">
+      <c r="DI30" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="DJ30" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="5:114" s="4" customFormat="1" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="45"/>
-      <c r="G31" s="19"/>
-      <c r="U31" s="9"/>
-      <c r="AO31" s="9"/>
-      <c r="AY31" s="9"/>
-      <c r="BM31" s="9"/>
-      <c r="CE31" s="9"/>
-      <c r="CQ31" s="9"/>
-      <c r="DJ31" s="9"/>
-    </row>
-    <row r="32" spans="5:114" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="45"/>
-      <c r="G32" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="O32" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="S32" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="U32" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="W32" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="AO32" s="9"/>
-      <c r="AX32" s="4"/>
-      <c r="AY32" s="9"/>
-      <c r="AZ32" s="4"/>
-      <c r="BH32" s="4"/>
-      <c r="BM32" s="9"/>
-      <c r="BP32" s="4"/>
-      <c r="BX32" s="4"/>
-      <c r="BZ32" s="4"/>
-      <c r="CE32" s="9"/>
-      <c r="CQ32" s="9"/>
-      <c r="DJ32" s="9"/>
-    </row>
-    <row r="33" spans="5:103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="45"/>
-      <c r="AX33" s="4"/>
-      <c r="AZ33" s="4"/>
-      <c r="BH33" s="4"/>
-      <c r="BP33" s="4"/>
-      <c r="BX33" s="4"/>
-      <c r="BZ33" s="4"/>
-    </row>
-    <row r="34" spans="5:103" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="45"/>
-      <c r="G34" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AX34" s="4"/>
-      <c r="AZ34" s="4"/>
-      <c r="BH34" s="4"/>
-      <c r="BP34" s="4"/>
-      <c r="BX34" s="4"/>
-      <c r="BZ34" s="4"/>
-      <c r="CA34" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="CC34" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="CE34" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="CG34" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="CI34" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="CK34" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="CM34" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="CO34" s="9"/>
-    </row>
-    <row r="35" spans="5:103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="45"/>
-      <c r="BH35" s="4"/>
-      <c r="BP35" s="4"/>
-      <c r="BX35" s="4"/>
-      <c r="BZ35" s="4"/>
-    </row>
-    <row r="36" spans="5:103" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="45"/>
-      <c r="G36" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AW36" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="AY36" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="BH36" s="4"/>
-      <c r="BP36" s="4"/>
-      <c r="BX36" s="4"/>
-      <c r="BZ36" s="4"/>
-      <c r="CM36" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="CO36" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="CQ36" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="CS36" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="CU36" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="5:103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BH37" s="4"/>
-      <c r="BP37" s="4"/>
-      <c r="BX37" s="4"/>
-      <c r="BZ37" s="4"/>
-    </row>
-    <row r="38" spans="5:103" ht="180.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="35"/>
-      <c r="G38" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG38" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU38" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="BI38" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="BK38" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="BM38" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="CE38" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="CO38" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="CY38" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="5:103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="35"/>
-    </row>
-    <row r="40" spans="5:103" ht="147" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="35"/>
-      <c r="G40" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="AY40" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="BC40" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="CI40" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="CK40" s="21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="5:103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="35"/>
-    </row>
-    <row r="42" spans="5:103" ht="140.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="35"/>
-      <c r="G42" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU42" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="CM42" s="21" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="CA1:CA42"/>
-  <mergeCells count="90">
-    <mergeCell ref="E38:E42"/>
+  <autoFilter ref="CA1:CA30" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="88">
+    <mergeCell ref="E16:E30"/>
+    <mergeCell ref="A1:E4"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A6:D6"/>
@@ -4369,8 +4044,6 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="E6:E14"/>
-    <mergeCell ref="E16:E36"/>
-    <mergeCell ref="A1:E4"/>
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
@@ -4422,19 +4095,18 @@
     <mergeCell ref="CA3:CA4"/>
     <mergeCell ref="CC3:CC4"/>
     <mergeCell ref="CE3:CE4"/>
-    <mergeCell ref="DL3:DL4"/>
-    <mergeCell ref="DA1:DL1"/>
+    <mergeCell ref="DK3:DK4"/>
+    <mergeCell ref="DA1:DK1"/>
     <mergeCell ref="DF3:DF4"/>
     <mergeCell ref="DG3:DG4"/>
     <mergeCell ref="CY3:CY4"/>
     <mergeCell ref="DA3:DA4"/>
     <mergeCell ref="DC3:DC4"/>
     <mergeCell ref="DE3:DE4"/>
-    <mergeCell ref="DI3:DI4"/>
     <mergeCell ref="BS1:BY1"/>
     <mergeCell ref="CI1:CQ1"/>
     <mergeCell ref="CS1:CY1"/>
-    <mergeCell ref="DJ3:DJ4"/>
+    <mergeCell ref="DI3:DI4"/>
     <mergeCell ref="CQ3:CQ4"/>
     <mergeCell ref="CS3:CS4"/>
     <mergeCell ref="CU3:CU4"/>
